--- a/data_impute_project/imputation_comparison/combination_1_ABCD/D/15/seed2_imputed_comparison.xlsx
+++ b/data_impute_project/imputation_comparison/combination_1_ABCD/D/15/seed2_imputed_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>RF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KNN_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SVM_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RF_Outliers_MAD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +493,15 @@
       <c r="E2" t="n">
         <v>-8.615600000000001</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +521,15 @@
       <c r="E3" t="n">
         <v>-8.250399999999999</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +549,15 @@
       <c r="E4" t="n">
         <v>-8.363799999999996</v>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +577,15 @@
       <c r="E5" t="n">
         <v>-8.256499999999996</v>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +605,15 @@
       <c r="E6" t="n">
         <v>-7.689399999999994</v>
       </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +633,15 @@
       <c r="E7" t="n">
         <v>-7.244200000000002</v>
       </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +661,15 @@
       <c r="E8" t="n">
         <v>-7.288100000000002</v>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +689,15 @@
       <c r="E9" t="n">
         <v>-8.269299999999998</v>
       </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +717,15 @@
       <c r="E10" t="n">
         <v>-8.181499999999996</v>
       </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +745,15 @@
       <c r="E11" t="n">
         <v>-8.317399999999992</v>
       </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +773,15 @@
       <c r="E12" t="n">
         <v>-7.482799999999998</v>
       </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +801,15 @@
       <c r="E13" t="n">
         <v>-7.423500000000008</v>
       </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +829,15 @@
       <c r="E14" t="n">
         <v>-9.262399999999994</v>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +857,15 @@
       <c r="E15" t="n">
         <v>-8.0921</v>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +885,15 @@
       <c r="E16" t="n">
         <v>-6.930999999999994</v>
       </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -762,6 +912,15 @@
       </c>
       <c r="E17" t="n">
         <v>-7.6684</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
